--- a/ESB/ESB_translation.xlsx
+++ b/ESB/ESB_translation.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\04_Projekte\Circular_economy\01_Projects\2018_LACE\02_Dissertation_Desing\14 - Austausch mit Gregor\ERA method for paper - online\ESB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 - Daten Harald\01 - Arbeitsunterlagen\06 - Sustainable resource base\ERA_method_v_2_2 - wo AOD\ESB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11472"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="PB" sheetId="1" r:id="rId1"/>
     <sheet name="CC" sheetId="3" r:id="rId2"/>
-    <sheet name="AOD" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
   <si>
     <t>Beta-PERT (min, mode, max)</t>
   </si>
@@ -46,6 +45,12 @@
     <t>Planetary Boundaries</t>
   </si>
   <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>conversion factors</t>
+  </si>
+  <si>
     <t>Boundary category</t>
   </si>
   <si>
@@ -67,6 +72,12 @@
     <t>d</t>
   </si>
   <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>Climate change</t>
   </si>
   <si>
@@ -76,6 +87,9 @@
     <t>ppm CO2</t>
   </si>
   <si>
+    <t>Steffen_2015</t>
+  </si>
+  <si>
     <t>energy imbalance on top of atmosphere</t>
   </si>
   <si>
@@ -124,6 +138,9 @@
     <t>Forest area loss</t>
   </si>
   <si>
+    <t>Rockstrom_2009</t>
+  </si>
+  <si>
     <t>Freshwater use</t>
   </si>
   <si>
@@ -166,9 +183,18 @@
     <t>kg CO2-eq/a</t>
   </si>
   <si>
+    <t>W.a/m².kgCO2-eq(GWP100)</t>
+  </si>
+  <si>
+    <t>Doka_2016</t>
+  </si>
+  <si>
     <t>species.a/a</t>
   </si>
   <si>
+    <t>global estimated species</t>
+  </si>
+  <si>
     <t>ozone depletion potential</t>
   </si>
   <si>
@@ -181,76 +207,49 @@
     <t>m³/a</t>
   </si>
   <si>
-    <t>particulate matter formation</t>
-  </si>
-  <si>
-    <t>kg PM10-eq/kg</t>
-  </si>
-  <si>
     <t>ERA of renewable energy</t>
   </si>
   <si>
-    <t>W-el</t>
-  </si>
-  <si>
     <t>P from fertilizer to soil</t>
   </si>
   <si>
+    <t>Ryberg_2018, Doka_2016</t>
+  </si>
+  <si>
+    <t>ReCiPe_2013</t>
+  </si>
+  <si>
+    <t>DU.a/kgCFC-11-eq</t>
+  </si>
+  <si>
+    <t>Doka_2016, IPCC_2013</t>
+  </si>
+  <si>
     <t xml:space="preserve">Appropriate ice-free land area </t>
   </si>
   <si>
+    <t>Röckstrom</t>
+  </si>
+  <si>
     <t>Cropland</t>
   </si>
   <si>
+    <t>Dinerstein_2017 + Steffen_2015</t>
+  </si>
+  <si>
     <t>Antropogenic increase in aerosol optical depth</t>
   </si>
   <si>
-    <t>Substance</t>
-  </si>
-  <si>
-    <t>annual emission</t>
-  </si>
-  <si>
-    <t>kg/a</t>
-  </si>
-  <si>
-    <t>SO2</t>
-  </si>
-  <si>
-    <t>NO2</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
-    <t>NMVOC</t>
-  </si>
-  <si>
-    <t>PM2,5</t>
-  </si>
-  <si>
-    <t>PM2,5-10</t>
-  </si>
-  <si>
-    <t>aerosol formation factor</t>
-  </si>
-  <si>
-    <t>PM10eq</t>
-  </si>
-  <si>
-    <t>emission PM10eq</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
-    <t>global anthropogenic AOD</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>AOD*a/kg</t>
+    <t>SI_renewable_energy_calculation.xlsx</t>
+  </si>
+  <si>
+    <t>Ryberg</t>
+  </si>
+  <si>
+    <t>300a time horizon</t>
   </si>
   <si>
     <t>Climate catastrophy</t>
@@ -322,10 +321,19 @@
     <t>assuming a rectangular distribution</t>
   </si>
   <si>
+    <t>old version</t>
+  </si>
+  <si>
+    <t>IPCC_2018</t>
+  </si>
+  <si>
     <t>GWP100</t>
   </si>
   <si>
     <t>rectangular (min, max)</t>
+  </si>
+  <si>
+    <t>MJ-el/a</t>
   </si>
 </sst>
 </file>
@@ -333,7 +341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -395,11 +403,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -416,9 +425,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -426,6 +437,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,10 +447,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+  <cellStyles count="3">
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,7 +514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1071,7 +1083,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="615219272"/>
@@ -1136,7 +1148,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="615220912"/>
@@ -1177,7 +1189,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2103,30 +2115,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="18"/>
-    <col min="16" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7265625" customWidth="1"/>
+    <col min="12" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" style="20"/>
+    <col min="16" max="16" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H1" s="1">
         <v>1</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H2" s="1">
         <v>2</v>
       </c>
@@ -2155,10 +2167,10 @@
         <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H3" s="1">
         <v>3</v>
       </c>
@@ -2174,64 +2186,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D4" s="22" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="19"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="21"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="8">
         <v>350</v>
@@ -2243,17 +2280,22 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H6" s="8">
+        <v>395.5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -2265,19 +2307,28 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H7" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9">
         <v>0.1</v>
@@ -2289,17 +2340,22 @@
       <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H8" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8">
         <v>14.5</v>
@@ -2311,11 +2367,19 @@
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>90</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2324,15 +2388,15 @@
       <c r="F10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8">
         <v>11000000000</v>
@@ -2344,17 +2408,22 @@
       <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H11" s="8">
+        <v>22000000000</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8">
         <v>6200000000</v>
@@ -2365,17 +2434,22 @@
       <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H12" s="8">
+        <v>14000000000</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8">
         <v>62000000000</v>
@@ -2387,17 +2461,22 @@
       <c r="G13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H13" s="8">
+        <v>150000000000</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9">
         <v>0.25</v>
@@ -2409,15 +2488,20 @@
       <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H14" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9">
         <v>0.15</v>
@@ -2430,16 +2514,19 @@
         <v>5</v>
       </c>
       <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8">
         <v>4000</v>
@@ -2451,17 +2538,22 @@
       <c r="G16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H16" s="8">
+        <v>2600</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D17" s="8">
         <v>0.25</v>
@@ -2476,16 +2568,19 @@
         <v>5</v>
       </c>
       <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8">
         <f>0.25-0.15</f>
@@ -2499,11 +2594,16 @@
       <c r="G18" s="1">
         <v>5</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2512,172 +2612,262 @@
       <c r="F19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G21" s="10"/>
-      <c r="O21" s="21"/>
-    </row>
-    <row r="22" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="23"/>
+    </row>
+    <row r="22" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G22" s="10"/>
-      <c r="O22" s="21"/>
-    </row>
-    <row r="23" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="23"/>
+      <c r="Z22" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="O23" s="21"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="O23" s="23"/>
+      <c r="U23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="16">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9">
         <v>825000000000</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
         <v>2200000000000</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="N24" s="17"/>
+      <c r="Q24" t="s">
+        <v>99</v>
+      </c>
+      <c r="T24" t="s">
+        <v>73</v>
+      </c>
+      <c r="U24">
+        <f>(350-278)/0.0000000000269</f>
+        <v>2676579925650.5576</v>
+      </c>
+      <c r="V24">
+        <f>(450-278)/0.0000000000269</f>
+        <v>6394052044609.666</v>
+      </c>
+      <c r="W24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>3000000000000</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>4900000000000</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>6800000000000</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="25">
+        <v>51</v>
+      </c>
+      <c r="D25" s="9">
+        <f>D7/L25</f>
         <v>10905125408942.203</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="25">
+      <c r="E25" s="13"/>
+      <c r="F25" s="9">
+        <f>F7/L25</f>
         <v>16357688113413.303</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="N25" s="17"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="11"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="L25" s="8">
+        <v>9.1700000000000003E-14</v>
+      </c>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20">
+        <v>5</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="16">
+        <v>54</v>
+      </c>
+      <c r="D26" s="9">
+        <f>D8*L26</f>
         <v>195000</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16">
+      <c r="E26" s="14"/>
+      <c r="F26" s="9">
+        <f>F8*L26</f>
         <v>1365000</v>
       </c>
       <c r="G26" s="1">
         <v>5</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="H26" s="8">
+        <v>5614000</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1950000</v>
+      </c>
       <c r="N26" s="8"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="O26" s="20">
+        <v>5</v>
+      </c>
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="16">
+        <v>57</v>
+      </c>
+      <c r="D27" s="9">
+        <f>D9/N27</f>
         <v>424013802.38032568</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16">
+      <c r="E27" s="13"/>
+      <c r="F27" s="9">
+        <f>F9/L27</f>
         <v>3694267515.9235663</v>
       </c>
       <c r="G27" s="1">
         <v>5</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="N27" s="9"/>
-      <c r="Q27" s="11"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="L27" s="8">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="N27" s="9">
+        <f>34.197/10^9</f>
+        <v>3.4197000000000005E-8</v>
+      </c>
+      <c r="O27" s="20">
+        <v>5</v>
+      </c>
+      <c r="P27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="16">
+        <v>32</v>
+      </c>
+      <c r="D28" s="9">
         <v>11000000000</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
         <v>100000000000</v>
       </c>
       <c r="G28" s="1">
         <v>5</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="Q28" s="11"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H28" s="8">
+        <v>22000000000</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="16">
+        <v>32</v>
+      </c>
+      <c r="D29" s="9">
         <v>6200000000</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16">
+      <c r="E29" s="13"/>
+      <c r="F29" s="9">
         <v>11200000000</v>
       </c>
       <c r="G29" s="1">
@@ -2686,223 +2876,194 @@
       <c r="H29" s="8"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="16">
+        <v>34</v>
+      </c>
+      <c r="D30" s="9">
         <v>62000000000</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
         <v>82000000000</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="Q30" s="11"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H30" s="8">
+        <v>150000000000</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="16">
+        <v>58</v>
+      </c>
+      <c r="D31" s="17">
         <v>50869869500000</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="17">
         <v>60066050000000</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="17">
         <v>69347190500000</v>
       </c>
       <c r="G31" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="11"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>51600000000000</v>
+      </c>
+      <c r="I31">
+        <v>52255000000000</v>
+      </c>
+      <c r="J31">
+        <v>52931000000000</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="16">
+        <v>58</v>
+      </c>
+      <c r="D32" s="9">
+        <f>D15*L32</f>
         <v>19398929100000</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16">
+      <c r="E32" s="13"/>
+      <c r="F32" s="9">
+        <f>F15*N32</f>
         <v>26099309200000</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="24">
         <v>5</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="L32" s="13">
+        <v>129326194000000</v>
+      </c>
+      <c r="M32" s="13">
+        <v>129911370000000</v>
+      </c>
+      <c r="N32" s="13">
+        <v>130496546000000</v>
+      </c>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="16">
+        <v>59</v>
+      </c>
+      <c r="D33" s="9">
         <v>4000000000000</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
         <v>6000000000000</v>
       </c>
       <c r="G33" s="1">
         <v>5</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H33" s="8">
+        <v>2600000000000</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="16">
-        <v>806240299921.3916</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16">
-        <v>2821841049724.8701</v>
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <f>H34*(3600*24*365.25*10^-6)</f>
+        <v>2258981951063461</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:F34" si="0">I34*(3600*24*365.25*10^-6)</f>
+        <v>5204426476185167</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>9569007322862294</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
-      </c>
-      <c r="L34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="Q34" s="11"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>71582818435605.406</v>
       </c>
-      <c r="E35" s="16">
+      <c r="I34">
         <v>164918323199012.84</v>
       </c>
-      <c r="F35" s="16">
+      <c r="J34">
         <v>303223544339946.5</v>
       </c>
-      <c r="G35" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="11"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D40" s="25"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="25"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2923,22 +3084,22 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -2950,7 +3111,7 @@
         <v>1407.7439999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -2961,12 +3122,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -3022,9 +3183,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
@@ -3078,7 +3239,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -3114,7 +3275,7 @@
         <v>398.0855625766639</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -3122,7 +3283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C13">
         <v>325</v>
       </c>
@@ -3171,12 +3332,12 @@
         <v>325.3042089254518</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3248,7 +3409,7 @@
         <v>16325</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -3320,7 +3481,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -3332,7 +3493,7 @@
         <v>36385</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>89</v>
       </c>
@@ -3341,7 +3502,7 @@
         <v>25.846318648845248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -3353,7 +3514,7 @@
         <v>2.7856965232925655</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
         <v>93</v>
       </c>
@@ -3364,7 +3525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -3384,7 +3545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -3405,163 +3566,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="16">
-        <v>106870000000</v>
-      </c>
-      <c r="C6">
-        <v>0.54</v>
-      </c>
-      <c r="D6" s="16">
-        <f>C6*B6</f>
-        <v>57709800000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="16">
-        <v>115940000000</v>
-      </c>
-      <c r="C7">
-        <v>0.88</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:D11" si="0">C7*B7</f>
-        <v>102027200000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="16">
-        <v>48635000000</v>
-      </c>
-      <c r="C8">
-        <v>0.64</v>
-      </c>
-      <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>31126400000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="16">
-        <v>146222000000</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>2924440000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="16">
-        <v>34306000000</v>
-      </c>
-      <c r="C10">
-        <v>1.7137</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>58790192200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="16">
-        <v>16163000000</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>16163000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="16">
-        <f>SUM(D6:D11)</f>
-        <v>268741032200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15">
-        <v>3.3300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="16">
-        <f>D15/D13</f>
-        <v>1.2391111147931358E-13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>